--- a/biology/Botanique/Helianthemum_hirtum/Helianthemum_hirtum.xlsx
+++ b/biology/Botanique/Helianthemum_hirtum/Helianthemum_hirtum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hélianthème hérissé
-Helianthemum hirtum, qui a pour nom commun Hélianthème hérissé[2], est une espèce de plante de la famille des Cistaceae et du genre Helianthemum.
+Helianthemum hirtum, qui a pour nom commun Hélianthème hérissé, est une espèce de plante de la famille des Cistaceae et du genre Helianthemum.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle mesure entre 12 et 40 cm de haut et possède de petites feuilles lancéolées et des fleurs jaunes. L'espèce fleurit en avril–juin, parfois dès mars[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle mesure entre 12 et 40 cm de haut et possède de petites feuilles lancéolées et des fleurs jaunes. L'espèce fleurit en avril–juin, parfois dès mars.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Helianthemum hirtum pousse dans le sud de l'Europe et dans le nord de l'Afrique, autour de la mer Méditerranée[3].
-L'espèce pousse à une altitude de 300 à 1 500 m au-dessus du niveau de la mer dans des endroits secs avec du calcaire ou de la dolomite[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helianthemum hirtum pousse dans le sud de l'Europe et dans le nord de l'Afrique, autour de la mer Méditerranée.
+L'espèce pousse à une altitude de 300 à 1 500 m au-dessus du niveau de la mer dans des endroits secs avec du calcaire ou de la dolomite.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Parasitologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La feuille a pour parasites Pyrgus alveus, Antilurga alhambrata (sv), Dasypteroma thaumasia (sv), Aspitates ochrearia, Dyscia distinctaria (sv), Compsoptera jourdanaria, Pyrgus bellieri, Pyrgus onopordi, Podosphaera helianthemi (sv), Coleophora bilineella (en), Aphis helianthemi (sv). La tige a pour parasite Aphis cisticola (sv)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La feuille a pour parasites Pyrgus alveus, Antilurga alhambrata (sv), Dasypteroma thaumasia (sv), Aspitates ochrearia, Dyscia distinctaria (sv), Compsoptera jourdanaria, Pyrgus bellieri, Pyrgus onopordi, Podosphaera helianthemi (sv), Coleophora bilineella (en), Aphis helianthemi (sv). La tige a pour parasite Aphis cisticola (sv).
 </t>
         </is>
       </c>
